--- a/O2S_QuanLyHocVien/Templates/BC01_TiepNhanHocVien.xlsx
+++ b/O2S_QuanLyHocVien/Templates/BC01_TiepNhanHocVien.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\0_QuanLyHocVien\O2S_QuanLyHocVien\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\O2S_QuanLyHocVien\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
